--- a/file/learn10.xlsx
+++ b/file/learn10.xlsx
@@ -19,37 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="198">
-  <si>
-    <t>每月固定課程</t>
-  </si>
-  <si>
-    <t>喵喵航空起飛班</t>
-  </si>
-  <si>
-    <t>喵喵</t>
-  </si>
-  <si>
-    <t>專屬社團</t>
-  </si>
-  <si>
-    <t>喵喵航空升航班</t>
-  </si>
-  <si>
-    <t>領袖共同帶領</t>
-  </si>
-  <si>
-    <t>輕零生活學習營</t>
-  </si>
-  <si>
-    <t>Flora</t>
-  </si>
-  <si>
-    <t>天然系美顏營</t>
-  </si>
-  <si>
-    <t>瓊儀/育真</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="204">
   <si>
     <t>公益課程</t>
   </si>
@@ -75,15 +45,6 @@
     <t>二</t>
   </si>
   <si>
-    <t>10:00-11:00</t>
-  </si>
-  <si>
-    <t>阿德勒讀書會</t>
-  </si>
-  <si>
-    <t>Vicky</t>
-  </si>
-  <si>
     <t>四</t>
   </si>
   <si>
@@ -117,12 +78,6 @@
     <t>日</t>
   </si>
   <si>
-    <t>SKY</t>
-  </si>
-  <si>
-    <t>google meet</t>
-  </si>
-  <si>
     <t>一</t>
   </si>
   <si>
@@ -169,9 +124,6 @@
   </si>
   <si>
     <t>必修課程</t>
-  </si>
-  <si>
-    <t>四大入門套裝選購指南</t>
   </si>
   <si>
     <t>13:00-15:30</t>
@@ -227,16 +179,7 @@
     <t>凱文老師</t>
   </si>
   <si>
-    <t>10:00-12:00</t>
-  </si>
-  <si>
-    <t>貓教官</t>
-  </si>
-  <si>
     <t>01台北</t>
-  </si>
-  <si>
-    <t>10:30-12:00</t>
   </si>
   <si>
     <t>02台中</t>
@@ -269,9 +212,6 @@
     <t>19:00-20:00</t>
   </si>
   <si>
-    <t>蕾思禮夫人-沛慈</t>
-  </si>
-  <si>
     <t>悠樂芳官方臉書粉絲團線上直播連結</t>
   </si>
   <si>
@@ -284,12 +224,6 @@
     <t>16:00-17:00</t>
   </si>
   <si>
-    <t>光語祝福</t>
-  </si>
-  <si>
-    <t>Google meet</t>
-  </si>
-  <si>
     <t>13:00-14:30</t>
   </si>
   <si>
@@ -299,43 +233,358 @@
     <t>03台南北區</t>
   </si>
   <si>
-    <t>11/1-11/30</t>
-  </si>
-  <si>
-    <t>11/1-11/28</t>
-  </si>
-  <si>
-    <t>11/1-11/21</t>
-  </si>
-  <si>
-    <t>年會資訊總覽+好康報報</t>
-  </si>
-  <si>
     <t>悠樂芳領袖營</t>
   </si>
   <si>
     <t>悠樂芳領袖營FB線上直播</t>
   </si>
   <si>
-    <t>宋老師聊一聊</t>
-  </si>
-  <si>
     <t>宋承鴻老師</t>
   </si>
   <si>
-    <t>精油聚寶盆三階前導課</t>
-  </si>
-  <si>
     <t>21:00-21:45</t>
   </si>
   <si>
-    <t>精油與牌卡的協奏曲</t>
-  </si>
-  <si>
-    <t>Zoom（或騰訊），課前公告</t>
-  </si>
-  <si>
-    <t>經營者大全-行動篇</t>
+    <t>愛樂芬</t>
+  </si>
+  <si>
+    <t>香氛五行生活</t>
+  </si>
+  <si>
+    <t>心開老師</t>
+  </si>
+  <si>
+    <t>https://forms.gle/qKoZxhL5dC7JNN778</t>
+  </si>
+  <si>
+    <t>kiki老師</t>
+  </si>
+  <si>
+    <t>可以怎麼用-每月PV推廣贈品介紹</t>
+  </si>
+  <si>
+    <t>綵樺</t>
+  </si>
+  <si>
+    <t>白雪公主乳霜</t>
+  </si>
+  <si>
+    <t>https://forms.gle/2ohDCx7QMWaoCdTz5</t>
+  </si>
+  <si>
+    <t>19:30-20:30</t>
+  </si>
+  <si>
+    <t>寶寶按摩體驗</t>
+  </si>
+  <si>
+    <t>多多老師</t>
+  </si>
+  <si>
+    <t>https://forms.gle/nHJwYQcReBw3ofP39</t>
+  </si>
+  <si>
+    <t>寶寶瑜珈體驗</t>
+  </si>
+  <si>
+    <t>鐘怡婷</t>
+  </si>
+  <si>
+    <t>寶寶手語體驗</t>
+  </si>
+  <si>
+    <t>童趣版萬用膏</t>
+  </si>
+  <si>
+    <t>佳容</t>
+  </si>
+  <si>
+    <t>03高雄鼓山</t>
+  </si>
+  <si>
+    <t>行善佈施迴向系列</t>
+  </si>
+  <si>
+    <t>Zoom線上</t>
+  </si>
+  <si>
+    <t>流行音樂歌唱教學</t>
+  </si>
+  <si>
+    <t>吳宣瑩</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/besden.music?mibextid=LQQJ4d</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/besden.music?mibextid=LQQJ5d</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/besden.music?mibextid=LQQJ6d</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/besden.music?mibextid=LQQJ7d</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/besden.music?mibextid=LQQJ8d</t>
+  </si>
+  <si>
+    <t>十二月好康報報</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/393653484462016/</t>
+  </si>
+  <si>
+    <t>水晶缽瑜珈</t>
+  </si>
+  <si>
+    <t>台中市精誠8街</t>
+  </si>
+  <si>
+    <t>https://lin.ee/x8uXmjm</t>
+  </si>
+  <si>
+    <t>21:30-22:30</t>
+  </si>
+  <si>
+    <t>精油小百科</t>
+  </si>
+  <si>
+    <t>Janet</t>
+  </si>
+  <si>
+    <t>芳療按摩課程-三伏貼精油背部按摩手法</t>
+  </si>
+  <si>
+    <t>張玉敬</t>
+  </si>
+  <si>
+    <t>經營者大全-複製篇</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/YLEO.Taiwan/</t>
+  </si>
+  <si>
+    <t>14:30~15:30</t>
+  </si>
+  <si>
+    <t>內在了解～好氣色篇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seven 、Kiwa </t>
+  </si>
+  <si>
+    <t>線上Zoom會議</t>
+  </si>
+  <si>
+    <t>牌卡與精油的複合療癒</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/j/7396516888?pwd=YTZQaGZYT29RYjBHSFQxRXhIRGhCZz09</t>
+  </si>
+  <si>
+    <t>芳療按摩課程-腿部淋巴按摩手法</t>
+  </si>
+  <si>
+    <t>Carefree小時</t>
+  </si>
+  <si>
+    <t>14:00~16:00</t>
+  </si>
+  <si>
+    <t>生命藍圖(三)</t>
+  </si>
+  <si>
+    <t>貝瑪.多傑/claire</t>
+  </si>
+  <si>
+    <t>領袖論壇-許名琪</t>
+  </si>
+  <si>
+    <t>芳療按摩課程-頭部芳香舒壓按摩手法</t>
+  </si>
+  <si>
+    <t>銀家學院Live</t>
+  </si>
+  <si>
+    <t>內在了解～情緒平衡</t>
+  </si>
+  <si>
+    <t>線上zoom會議</t>
+  </si>
+  <si>
+    <t>20:00-21:00</t>
+  </si>
+  <si>
+    <t>松果聖誕樹</t>
+  </si>
+  <si>
+    <t>https://reurl.cc/pZLNjb</t>
+  </si>
+  <si>
+    <t>芳療按摩課程-溫宮祛寒子宮保健</t>
+  </si>
+  <si>
+    <t>頭部鬆筋療法</t>
+  </si>
+  <si>
+    <t>孕產親子</t>
+  </si>
+  <si>
+    <t>懷孕初期照顧</t>
+  </si>
+  <si>
+    <t>建秀+懿萱+Grace</t>
+  </si>
+  <si>
+    <t>懷孕中期照顧</t>
+  </si>
+  <si>
+    <t>懷孕後期照顧</t>
+  </si>
+  <si>
+    <t>初階寶寶按摩</t>
+  </si>
+  <si>
+    <t>Kammy林代苹</t>
+  </si>
+  <si>
+    <t>初階寶寶瑜珈</t>
+  </si>
+  <si>
+    <t>進階寶寶按摩</t>
+  </si>
+  <si>
+    <t>進階寶寶瑜珈</t>
+  </si>
+  <si>
+    <t>https://reurl.cc/10bxO8</t>
+  </si>
+  <si>
+    <t>https://reurl.cc/x1vZvV</t>
+  </si>
+  <si>
+    <t>13:30~15:30</t>
+  </si>
+  <si>
+    <t>聖誕刺繡小品/香氛包</t>
+  </si>
+  <si>
+    <t>Sarah文菁</t>
+  </si>
+  <si>
+    <t>01新竹竹北</t>
+  </si>
+  <si>
+    <t>https://forms.gle/BrhT7jcPH8GAfV859</t>
+  </si>
+  <si>
+    <t>02Carefree小時</t>
+  </si>
+  <si>
+    <t>庭瑧</t>
+  </si>
+  <si>
+    <t>13:00~15:00</t>
+  </si>
+  <si>
+    <t>精油.能量.認識自己</t>
+  </si>
+  <si>
+    <t>美慧、玉青</t>
+  </si>
+  <si>
+    <t>https://reurl.cc/91XNZv</t>
+  </si>
+  <si>
+    <t>傾聽子宮的聲音</t>
+  </si>
+  <si>
+    <t>02醃漬事務所</t>
+  </si>
+  <si>
+    <t>https://forms.gle/WZR8wvWzgrWH4EDZ7</t>
+  </si>
+  <si>
+    <t>頭療舒壓棒</t>
+  </si>
+  <si>
+    <t>https://forms.gle/CPcXYB8XeTzwvd11A</t>
+  </si>
+  <si>
+    <t>14:00-15:00</t>
+  </si>
+  <si>
+    <t>https://forms.gle/ZxgpKpwWrMEygZXe9</t>
+  </si>
+  <si>
+    <t>香氛頌缽音療</t>
+  </si>
+  <si>
+    <t>金星老師</t>
+  </si>
+  <si>
+    <t>https://forms.gle/g3ZaeFeyCh34fd11A</t>
+  </si>
+  <si>
+    <t>https://forms.gle/7Bvhxg9L4pAAueTt5</t>
+  </si>
+  <si>
+    <t>聖誕版香氛蠟燭</t>
+  </si>
+  <si>
+    <t>嫩白保濕護手霜</t>
+  </si>
+  <si>
+    <t>https://forms.gle/Q2MnnARtrhQdJgxx6</t>
+  </si>
+  <si>
+    <t>天然紫草膏</t>
+  </si>
+  <si>
+    <t>寵物萬用膏</t>
+  </si>
+  <si>
+    <t>每月固定課程</t>
+  </si>
+  <si>
+    <t>12/1-12/31</t>
+  </si>
+  <si>
+    <t>喵喵航空起飛班</t>
+  </si>
+  <si>
+    <t>喵喵</t>
+  </si>
+  <si>
+    <t>專屬社團</t>
+  </si>
+  <si>
+    <t>喵喵航空升航班</t>
+  </si>
+  <si>
+    <t>領袖共同帶領</t>
+  </si>
+  <si>
+    <t>12/1-12/28</t>
+  </si>
+  <si>
+    <t>輕零生活學習營</t>
+  </si>
+  <si>
+    <t>Flora</t>
+  </si>
+  <si>
+    <t>12/1-12/21</t>
+  </si>
+  <si>
+    <t>天然系美顏營</t>
+  </si>
+  <si>
+    <t>瓊儀/育真</t>
+  </si>
+  <si>
+    <t>10:30-12:00</t>
   </si>
   <si>
     <t>喵喵團隊會員日-蛻變更好的自己（活用精油組）</t>
@@ -344,10 +593,13 @@
     <t>Kammy</t>
   </si>
   <si>
+    <t>13:00-14:00</t>
+  </si>
+  <si>
     <t>喵喵團隊會員日-曼陀羅牌卡</t>
   </si>
   <si>
-    <t>貝兒</t>
+    <t>14:00-15:50</t>
   </si>
   <si>
     <t>喵喵團隊會員日-你可以做的各種膏</t>
@@ -356,277 +608,43 @@
     <t>喵喵團隊會員日-你可以做的各種霜</t>
   </si>
   <si>
-    <t>愛樂芬</t>
-  </si>
-  <si>
     <t>喵喵團隊會員日-症狀調油&amp;按摩手法</t>
   </si>
   <si>
-    <t>接財氣 開財庫</t>
-  </si>
-  <si>
-    <t>香香Queen</t>
-  </si>
-  <si>
-    <t>香氛五行生活</t>
-  </si>
-  <si>
-    <t>心開老師</t>
-  </si>
-  <si>
-    <t>台中北屯區</t>
-  </si>
-  <si>
-    <t>https://forms.gle/qKoZxhL5dC7JNN778</t>
-  </si>
-  <si>
-    <t>22:00-22:30</t>
-  </si>
-  <si>
-    <t>sky</t>
-  </si>
-  <si>
-    <t>https://forms.gle/MeS2EV8XX6EmJF398</t>
-  </si>
-  <si>
-    <t>生命藍圖(二)</t>
-  </si>
-  <si>
-    <t>貝瑪.多傑/Claire</t>
-  </si>
-  <si>
-    <t>領袖論壇-陳奕汕</t>
-  </si>
-  <si>
-    <t>回到源頭找回你的神</t>
+    <t>10:00-11:00</t>
+  </si>
+  <si>
+    <t>阿德勒讀書會</t>
+  </si>
+  <si>
+    <t>Vicky</t>
+  </si>
+  <si>
+    <t>10:00-11:01</t>
+  </si>
+  <si>
+    <t>10:00-11:02</t>
+  </si>
+  <si>
+    <t>10:00-11:03</t>
+  </si>
+  <si>
+    <t>瓊儀</t>
   </si>
   <si>
     <t>喵喵團隊南部據點</t>
   </si>
   <si>
-    <t>經營者工具大全</t>
-  </si>
-  <si>
-    <t>17:00-18:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">google meet </t>
-  </si>
-  <si>
-    <t>靈魂伴侶(牽紅線)</t>
-  </si>
-  <si>
-    <t>ZOOM</t>
-  </si>
-  <si>
-    <t>香氛五行命理</t>
-  </si>
-  <si>
-    <t>20:00-21:30</t>
-  </si>
-  <si>
-    <t>聖誕花圈DIY</t>
-  </si>
-  <si>
-    <t>kiki老師</t>
-  </si>
-  <si>
-    <t>https://reurl.cc/V1k4mQ</t>
-  </si>
-  <si>
-    <t>療癒深層內在小孩</t>
-  </si>
-  <si>
-    <t>2023 開卦人生</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/393653484462016/?ref=share</t>
-  </si>
-  <si>
-    <t>可以怎麼用-每月PV推廣贈品介紹</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/YLEO.Taiwan</t>
-  </si>
-  <si>
-    <t>20:00-22:00</t>
-  </si>
-  <si>
-    <t>讀書會系列當下的力量</t>
-  </si>
-  <si>
-    <t>00Zoom會議室</t>
-  </si>
-  <si>
-    <t>https://forms.gle/Qvz5Qz5ciNuDuaiT7</t>
-  </si>
-  <si>
-    <t>21:00-21:30</t>
-  </si>
-  <si>
-    <t>11月子宮瑜珈線上課</t>
-  </si>
-  <si>
-    <t>綵樺</t>
-  </si>
-  <si>
-    <t>00google meet</t>
-  </si>
-  <si>
-    <t>https://forms.gle/g5ZrbtsVxj6vxz2j7</t>
-  </si>
-  <si>
-    <t>13:30-15:30</t>
-  </si>
-  <si>
-    <t>精油聚寶盆初階</t>
-  </si>
-  <si>
-    <t>00Google meet</t>
-  </si>
-  <si>
-    <t>精油聚寶盆進階</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00Google meet </t>
-  </si>
-  <si>
-    <t>精油聚寶盆高階</t>
-  </si>
-  <si>
-    <t>https://reurl.cc/EXKAxk</t>
-  </si>
-  <si>
-    <t>https://reurl.cc/58gmmV</t>
-  </si>
-  <si>
-    <t>白雪公主乳霜</t>
-  </si>
-  <si>
-    <t>02台中北屯區</t>
-  </si>
-  <si>
-    <t>https://forms.gle/2ohDCx7QMWaoCdTz5</t>
-  </si>
-  <si>
-    <t>19:30-20:30</t>
-  </si>
-  <si>
-    <t>舒眠放鬆瑜珈</t>
-  </si>
-  <si>
-    <t>02台中西區精誠八街</t>
-  </si>
-  <si>
-    <t>https://forms.gle/iRU9DwSXgYZAKtsd9</t>
-  </si>
-  <si>
-    <t>https://forms.gle/vvzadCv2AAUsXNAj6</t>
-  </si>
-  <si>
-    <t>10:30-11:30</t>
-  </si>
-  <si>
-    <t>寶寶按摩體驗</t>
-  </si>
-  <si>
-    <t>多多老師</t>
-  </si>
-  <si>
-    <t>02台中市北屯區</t>
-  </si>
-  <si>
-    <t>https://forms.gle/nHJwYQcReBw3ofP39</t>
-  </si>
-  <si>
-    <t>生命數字魔法療癒</t>
-  </si>
-  <si>
-    <t>連緁宜</t>
-  </si>
-  <si>
-    <t>02Carefree教室</t>
-  </si>
-  <si>
-    <t>https://forms.gle/jGZQ8AEbko3gYqcM7</t>
-  </si>
-  <si>
-    <t>茶葉占卜(預知未來)</t>
-  </si>
-  <si>
-    <t>寶寶瑜珈體驗</t>
-  </si>
-  <si>
-    <t>豐盛幸福能量調香</t>
-  </si>
-  <si>
-    <t>鐘怡婷</t>
-  </si>
-  <si>
-    <t>https://forms.gle/TAC7XAayRdMkbfab7</t>
-  </si>
-  <si>
-    <t>一起共讀阿德勒</t>
-  </si>
-  <si>
-    <t>黃盈琪</t>
-  </si>
-  <si>
-    <t>https://reurl.cc/7j2Gkl</t>
-  </si>
-  <si>
-    <t>自製天然香水</t>
-  </si>
-  <si>
-    <t>陳昱廷</t>
-  </si>
-  <si>
-    <t>https://forms.gle/rLEoGLSprHtugdVo7</t>
-  </si>
-  <si>
-    <t>寶寶手語體驗</t>
-  </si>
-  <si>
-    <t>18:00-20:00</t>
-  </si>
-  <si>
-    <t>童心療癒黏土手作</t>
-  </si>
-  <si>
-    <t>Jenny</t>
-  </si>
-  <si>
-    <t>https://forms.gle/5R3HD8DQiGfkbG2bA</t>
-  </si>
-  <si>
-    <t>自製迷人香水</t>
-  </si>
-  <si>
-    <t>https://forms.gle/hBA3pYttWrspC8KY7</t>
-  </si>
-  <si>
-    <t>小花洗手慕斯</t>
-  </si>
-  <si>
-    <t>香氛沐浴球</t>
+    <t>悠樂芳粉絲專頁</t>
+  </si>
+  <si>
+    <t>喵喵團隊會員日-爆棚豐盛閃亮精華油</t>
+  </si>
+  <si>
+    <t>01台北悠樂芳</t>
   </si>
   <si>
     <t>03喵喵團隊南部據點</t>
-  </si>
-  <si>
-    <t>精油洗髮餅-聖誕版</t>
-  </si>
-  <si>
-    <t>童趣版萬用膏</t>
-  </si>
-  <si>
-    <t>佳容</t>
-  </si>
-  <si>
-    <t>03高雄鼓山</t>
-  </si>
-  <si>
-    <t>https://forms.gle/F4U9MRpnSLknrQzAA</t>
   </si>
 </sst>
 </file>
@@ -1549,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1569,5383 +1587,4998 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
         <v>56</v>
       </c>
-      <c r="J1" t="s">
-        <v>75</v>
-      </c>
       <c r="K1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="I2" t="s">
-        <v>2</v>
+        <v>173</v>
       </c>
       <c r="J2" t="s">
-        <v>3</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>175</v>
       </c>
       <c r="I3" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="J3" t="s">
-        <v>3</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>178</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="J4" t="s">
-        <v>3</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="J5" t="s">
-        <v>3</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>44867</v>
+        <v>44897</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>44868</v>
+        <v>44898</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>44869</v>
+        <v>44899</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>44870</v>
+        <v>44900</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>44871</v>
+        <v>44901</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>44872</v>
+        <v>44902</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>44873</v>
+        <v>44903</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>44874</v>
+        <v>44904</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1">
-        <v>44875</v>
+        <v>44905</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>44876</v>
+        <v>44906</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1">
-        <v>44877</v>
+        <v>44907</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1">
-        <v>44878</v>
+        <v>44908</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1">
-        <v>44879</v>
+        <v>44909</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1">
-        <v>44880</v>
+        <v>44910</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J20" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
-        <v>44881</v>
+        <v>44911</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J21" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E22" s="1">
-        <v>44882</v>
+        <v>44912</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1">
-        <v>44883</v>
+        <v>44913</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1">
-        <v>44884</v>
+        <v>44914</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J24" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1">
-        <v>44885</v>
+        <v>44915</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E26" s="1">
-        <v>44886</v>
+        <v>44916</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I26" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J26" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E27" s="1">
-        <v>44887</v>
+        <v>44917</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J27" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1">
-        <v>44888</v>
+        <v>44918</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I28" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J28" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1">
-        <v>44889</v>
+        <v>44919</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J29" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E30" s="1">
-        <v>44890</v>
+        <v>44920</v>
       </c>
       <c r="F30" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I30" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E31" s="1">
-        <v>44891</v>
+        <v>44921</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I31" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J31" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E32" s="1">
-        <v>44892</v>
+        <v>44922</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I32" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J32" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E33" s="1">
-        <v>44893</v>
+        <v>44923</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I33" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J33" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E34" s="1">
-        <v>44894</v>
+        <v>44924</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J34" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E35" s="1">
-        <v>44895</v>
+        <v>44925</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I35" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J35" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E36" s="1">
-        <v>44866</v>
+        <v>44926</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I36" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J36" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E37" s="1">
-        <v>44866</v>
+        <v>44900</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="H37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I37" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="J37" t="s">
-        <v>93</v>
-      </c>
-      <c r="K37" t="s">
-        <v>135</v>
+        <v>90</v>
+      </c>
+      <c r="L37" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E38" s="1">
-        <v>44866</v>
+        <v>44901</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="H38" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I38" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="J38" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="L38" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E39" s="1">
-        <v>44867</v>
+        <v>44902</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="H39" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I39" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="J39" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L39" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E40" s="1">
-        <v>44867</v>
+        <v>44907</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="H40" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I40" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="J40" t="s">
+        <v>90</v>
+      </c>
+      <c r="L40" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E41" s="1">
-        <v>44867</v>
+        <v>44908</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="I41" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J41" t="s">
+        <v>90</v>
+      </c>
+      <c r="L41" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E42" s="1">
-        <v>44867</v>
+        <v>44909</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="H42" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I42" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J42" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="L42" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E43" s="1">
-        <v>44868</v>
+        <v>44914</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="J43" t="s">
-        <v>25</v>
+        <v>90</v>
+      </c>
+      <c r="L43" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E44" s="1">
-        <v>44872</v>
+        <v>44915</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="H44" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="I44" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="J44" t="s">
-        <v>93</v>
-      </c>
-      <c r="K44" t="s">
-        <v>135</v>
+        <v>90</v>
+      </c>
+      <c r="L44" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E45" s="1">
-        <v>44872</v>
+        <v>44916</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G45" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H45" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="I45" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="J45" t="s">
-        <v>54</v>
+        <v>90</v>
+      </c>
+      <c r="L45" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E46" s="1">
-        <v>44872</v>
+        <v>44921</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="H46" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="I46" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="J46" t="s">
-        <v>54</v>
+        <v>90</v>
+      </c>
+      <c r="L46" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E47" s="1">
-        <v>44872</v>
+        <v>44922</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H47" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="I47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J47" t="s">
-        <v>54</v>
+        <v>90</v>
+      </c>
+      <c r="L47" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E48" s="1">
-        <v>44872</v>
+        <v>44923</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H48" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="I48" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="J48" t="s">
-        <v>54</v>
+        <v>90</v>
+      </c>
+      <c r="L48" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E49" s="1">
-        <v>44872</v>
+        <v>44902</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="J49" t="s">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="L49" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E50" s="1">
-        <v>44872</v>
+        <v>44909</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G50" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="J50" t="s">
+        <v>6</v>
+      </c>
+      <c r="L50" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E51" s="1">
-        <v>44873</v>
+        <v>44916</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="J51" t="s">
+        <v>6</v>
+      </c>
+      <c r="L51" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E52" s="1">
-        <v>44873</v>
+        <v>44923</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G52" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="J52" t="s">
+        <v>6</v>
+      </c>
+      <c r="L52" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1">
+        <v>44896</v>
+      </c>
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" t="s">
         <v>10</v>
       </c>
-      <c r="C53" t="s">
+      <c r="I53" t="s">
         <v>11</v>
       </c>
-      <c r="D53" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" s="1">
-        <v>44873</v>
-      </c>
-      <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s">
-        <v>77</v>
-      </c>
-      <c r="H53" t="s">
-        <v>109</v>
-      </c>
-      <c r="I53" t="s">
-        <v>110</v>
-      </c>
       <c r="J53" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L53" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>44903</v>
+      </c>
+      <c r="F54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" t="s">
         <v>11</v>
       </c>
-      <c r="D54" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="1">
-        <v>44874</v>
-      </c>
-      <c r="F54" t="s">
-        <v>35</v>
-      </c>
-      <c r="G54" t="s">
-        <v>30</v>
-      </c>
-      <c r="H54" t="s">
-        <v>136</v>
-      </c>
-      <c r="I54" t="s">
-        <v>79</v>
-      </c>
-      <c r="K54" t="s">
-        <v>137</v>
+      <c r="J54" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="1">
+        <v>44910</v>
+      </c>
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" t="s">
         <v>10</v>
       </c>
-      <c r="C55" t="s">
+      <c r="I55" t="s">
         <v>11</v>
       </c>
-      <c r="D55" t="s">
+      <c r="J55" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="1">
-        <v>44874</v>
-      </c>
-      <c r="F55" t="s">
-        <v>35</v>
-      </c>
-      <c r="G55" t="s">
-        <v>82</v>
-      </c>
-      <c r="H55" t="s">
-        <v>94</v>
-      </c>
-      <c r="I55" t="s">
-        <v>95</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="L55" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="1">
+        <v>44917</v>
+      </c>
+      <c r="F56" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" t="s">
         <v>10</v>
       </c>
-      <c r="C56" t="s">
+      <c r="I56" t="s">
         <v>11</v>
       </c>
-      <c r="D56" t="s">
+      <c r="J56" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="1">
-        <v>44874</v>
-      </c>
-      <c r="F56" t="s">
-        <v>35</v>
-      </c>
-      <c r="G56" t="s">
-        <v>63</v>
-      </c>
-      <c r="H56" t="s">
-        <v>64</v>
-      </c>
-      <c r="I56" t="s">
-        <v>65</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="L56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="1">
+        <v>44924</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" t="s">
         <v>10</v>
       </c>
-      <c r="C57" t="s">
+      <c r="I57" t="s">
         <v>11</v>
       </c>
-      <c r="D57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="1">
-        <v>44874</v>
-      </c>
-      <c r="F57" t="s">
-        <v>35</v>
-      </c>
-      <c r="G57" t="s">
-        <v>80</v>
-      </c>
-      <c r="H57" t="s">
-        <v>36</v>
-      </c>
-      <c r="I57" t="s">
-        <v>37</v>
-      </c>
       <c r="J57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L57" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E58" s="1">
-        <v>44875</v>
+        <v>44896</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G58" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="H58" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="I58" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="J58" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="K58" t="s">
+        <v>93</v>
+      </c>
+      <c r="L58" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E59" s="1">
-        <v>44875</v>
+        <v>44903</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="H59" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="I59" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="J59" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="K59" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="L59" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E60" s="1">
-        <v>44875</v>
+        <v>44910</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I60" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="J60" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="K60" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="L60" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E61" s="1">
-        <v>44877</v>
+        <v>44917</v>
       </c>
       <c r="F61" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="H61" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="I61" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="J61" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="K61" t="s">
+        <v>96</v>
       </c>
       <c r="L61" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E62" s="1">
-        <v>44879</v>
+        <v>44924</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="H62" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="I62" t="s">
         <v>92</v>
       </c>
       <c r="J62" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="K62" t="s">
-        <v>135</v>
+        <v>97</v>
+      </c>
+      <c r="L62" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E63" s="1">
-        <v>44879</v>
+        <v>44896</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G63" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I63" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="J63" t="s">
+        <v>67</v>
+      </c>
+      <c r="K63" t="s">
+        <v>99</v>
+      </c>
+      <c r="L63" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E64" s="1">
-        <v>44880</v>
+        <v>44896</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G64" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="I64" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="J64" t="s">
+        <v>101</v>
+      </c>
+      <c r="K64" t="s">
+        <v>102</v>
+      </c>
+      <c r="L64" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E65" s="1">
-        <v>44880</v>
+        <v>44896</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G65" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="H65" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="I65" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="J65" t="s">
+        <v>6</v>
+      </c>
+      <c r="L65" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E66" s="1">
-        <v>44881</v>
+        <v>44897</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="H66" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="I66" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="J66" t="s">
+        <v>6</v>
+      </c>
+      <c r="L66" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E67" s="1">
-        <v>44881</v>
+        <v>44900</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="H67" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="I67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J67" t="s">
+        <v>67</v>
+      </c>
+      <c r="K67" t="s">
+        <v>99</v>
+      </c>
+      <c r="L67" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E68" s="1">
-        <v>44882</v>
+        <v>44900</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="H68" t="s">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="I68" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="J68" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="L68" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E69" s="1">
-        <v>44884</v>
+        <v>44900</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>66</v>
+        <v>186</v>
       </c>
       <c r="H69" t="s">
-        <v>121</v>
-      </c>
-      <c r="I69" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="J69" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="L69" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E70" s="1">
-        <v>44885</v>
+        <v>44900</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="H70" t="s">
-        <v>101</v>
-      </c>
-      <c r="I70" t="s">
-        <v>7</v>
+        <v>189</v>
       </c>
       <c r="J70" t="s">
-        <v>122</v>
+        <v>33</v>
+      </c>
+      <c r="L70" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E71" s="1">
-        <v>44885</v>
+        <v>44900</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="H71" t="s">
-        <v>103</v>
-      </c>
-      <c r="I71" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="J71" t="s">
-        <v>122</v>
+        <v>33</v>
+      </c>
+      <c r="L71" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E72" s="1">
-        <v>44885</v>
+        <v>44900</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="H72" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="J72" t="s">
-        <v>122</v>
+        <v>33</v>
+      </c>
+      <c r="L72" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E73" s="1">
-        <v>44885</v>
+        <v>44901</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="H73" t="s">
-        <v>106</v>
+        <v>193</v>
+      </c>
+      <c r="I73" t="s">
+        <v>194</v>
       </c>
       <c r="J73" t="s">
-        <v>122</v>
+        <v>6</v>
+      </c>
+      <c r="L73" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E74" s="1">
-        <v>44885</v>
+        <v>44908</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="H74" t="s">
-        <v>108</v>
+        <v>193</v>
+      </c>
+      <c r="I74" t="s">
+        <v>194</v>
       </c>
       <c r="J74" t="s">
-        <v>122</v>
+        <v>6</v>
+      </c>
+      <c r="L74" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E75" s="1">
-        <v>44886</v>
+        <v>44915</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c r="H75" t="s">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="I75" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="J75" t="s">
-        <v>93</v>
-      </c>
-      <c r="K75" t="s">
-        <v>135</v>
+        <v>6</v>
+      </c>
+      <c r="L75" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E76" s="1">
-        <v>44886</v>
+        <v>44922</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="H76" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="I76" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="J76" t="s">
+        <v>6</v>
+      </c>
+      <c r="L76" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E77" s="1">
-        <v>44887</v>
+        <v>44901</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="H77" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="I77" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="J77" t="s">
+        <v>199</v>
+      </c>
+      <c r="L77" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E78" s="1">
-        <v>44887</v>
+        <v>44901</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="H78" t="s">
-        <v>94</v>
-      </c>
-      <c r="I78" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="J78" t="s">
+        <v>199</v>
+      </c>
+      <c r="L78" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E79" s="1">
-        <v>44888</v>
+        <v>44901</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="H79" t="s">
-        <v>94</v>
-      </c>
-      <c r="I79" t="s">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="J79" t="s">
+        <v>199</v>
+      </c>
+      <c r="L79" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E80" s="1">
-        <v>44888</v>
+        <v>44901</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G80" t="s">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="H80" t="s">
-        <v>83</v>
-      </c>
-      <c r="I80" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="J80" t="s">
-        <v>125</v>
-      </c>
-      <c r="K80" t="s">
-        <v>117</v>
+        <v>199</v>
       </c>
       <c r="L80" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E81" s="1">
-        <v>44888</v>
+        <v>44901</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G81" t="s">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="H81" t="s">
-        <v>126</v>
-      </c>
-      <c r="I81" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="J81" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="L81" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E82" s="1">
-        <v>44888</v>
+        <v>44902</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G82" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H82" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I82" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="J82" t="s">
+        <v>6</v>
+      </c>
+      <c r="L82" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E83" s="1">
-        <v>44888</v>
+        <v>44902</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G83" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="H83" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="I83" t="s">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="J83" t="s">
+        <v>59</v>
+      </c>
+      <c r="K83" t="s">
+        <v>109</v>
+      </c>
+      <c r="L83" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E84" s="1">
-        <v>44889</v>
+        <v>44902</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G84" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="H84" t="s">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="I84" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="J84" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="L84" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D85" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E85" s="1">
-        <v>44889</v>
+        <v>44902</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="H85" t="s">
-        <v>128</v>
-      </c>
-      <c r="I85" t="s">
-        <v>112</v>
+        <v>187</v>
       </c>
       <c r="J85" t="s">
-        <v>113</v>
-      </c>
-      <c r="K85" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="L85" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E86" s="1">
-        <v>44890</v>
+        <v>44902</v>
       </c>
       <c r="F86" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G86" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="H86" t="s">
-        <v>130</v>
-      </c>
-      <c r="I86" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="J86" t="s">
-        <v>16</v>
-      </c>
-      <c r="K86" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="L86" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E87" s="1">
-        <v>44893</v>
+        <v>44902</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G87" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="H87" t="s">
-        <v>94</v>
-      </c>
-      <c r="I87" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="J87" t="s">
+        <v>38</v>
+      </c>
+      <c r="L87" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D88" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E88" s="1">
-        <v>44893</v>
+        <v>44902</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G88" t="s">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="H88" t="s">
-        <v>133</v>
-      </c>
-      <c r="I88" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="J88" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="L88" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E89" s="1">
-        <v>44894</v>
+        <v>44902</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G89" t="s">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="H89" t="s">
-        <v>19</v>
-      </c>
-      <c r="I89" t="s">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="J89" t="s">
+        <v>38</v>
+      </c>
+      <c r="L89" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E90" s="1">
-        <v>44894</v>
+        <v>44903</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G90" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="H90" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="I90" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="J90" t="s">
+        <v>113</v>
+      </c>
+      <c r="L90" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E91" s="1">
-        <v>44895</v>
+        <v>44903</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G91" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="H91" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="I91" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="J91" t="s">
+        <v>6</v>
+      </c>
+      <c r="K91" t="s">
+        <v>115</v>
+      </c>
+      <c r="L91" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E92" s="1">
-        <v>44895</v>
+        <v>44904</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="H92" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="I92" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J92" t="s">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="L92" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>53</v>
+      </c>
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="1">
+        <v>44905</v>
+      </c>
+      <c r="F93" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" t="s">
+        <v>25</v>
+      </c>
+      <c r="H93" t="s">
+        <v>71</v>
+      </c>
+      <c r="I93" t="s">
         <v>72</v>
       </c>
-      <c r="B93" t="s">
-        <v>10</v>
-      </c>
-      <c r="C93" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s">
-        <v>12</v>
-      </c>
-      <c r="E93" s="1">
-        <v>44895</v>
-      </c>
-      <c r="F93" t="s">
-        <v>35</v>
-      </c>
-      <c r="G93" t="s">
-        <v>63</v>
-      </c>
-      <c r="H93" t="s">
-        <v>64</v>
-      </c>
-      <c r="I93" t="s">
-        <v>65</v>
-      </c>
       <c r="J93" t="s">
+        <v>117</v>
+      </c>
+      <c r="K93" t="s">
+        <v>73</v>
+      </c>
+      <c r="L93" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B94" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E94" s="1">
-        <v>44866</v>
+        <v>44905</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G94" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H94" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="I94" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="J94" t="s">
-        <v>140</v>
-      </c>
-      <c r="K94" t="s">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="L94" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B95" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E95" s="1">
-        <v>44872</v>
+        <v>44907</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G95" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="I95" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="J95" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="K95" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="L95" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>53</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="1">
+        <v>44910</v>
+      </c>
+      <c r="F96" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" t="s">
+        <v>25</v>
+      </c>
+      <c r="H96" t="s">
+        <v>71</v>
+      </c>
+      <c r="I96" t="s">
+        <v>72</v>
+      </c>
+      <c r="J96" t="s">
+        <v>117</v>
+      </c>
+      <c r="K96" t="s">
         <v>73</v>
       </c>
-      <c r="B96" t="s">
-        <v>43</v>
-      </c>
-      <c r="C96" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s">
-        <v>26</v>
-      </c>
-      <c r="E96" s="1">
-        <v>44873</v>
-      </c>
-      <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" t="s">
-        <v>138</v>
-      </c>
-      <c r="H96" t="s">
-        <v>139</v>
-      </c>
-      <c r="I96" t="s">
-        <v>95</v>
-      </c>
-      <c r="J96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K96" t="s">
-        <v>141</v>
-      </c>
       <c r="L96" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E97" s="1">
-        <v>44879</v>
+        <v>44911</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G97" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="H97" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="I97" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="J97" t="s">
-        <v>140</v>
-      </c>
-      <c r="K97" t="s">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="L97" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E98" s="1">
-        <v>44880</v>
+        <v>44914</v>
       </c>
       <c r="F98" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" t="s">
         <v>17</v>
       </c>
-      <c r="G98" t="s">
-        <v>138</v>
-      </c>
       <c r="H98" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="I98" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="J98" t="s">
-        <v>140</v>
-      </c>
-      <c r="K98" t="s">
-        <v>141</v>
-      </c>
-      <c r="L98" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B99" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E99" s="1">
-        <v>44886</v>
+        <v>44916</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G99" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="H99" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="I99" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="J99" t="s">
-        <v>140</v>
-      </c>
-      <c r="K99" t="s">
-        <v>141</v>
-      </c>
-      <c r="L99" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B100" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E100" s="1">
-        <v>44887</v>
+        <v>44917</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G100" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="H100" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="I100" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="J100" t="s">
-        <v>140</v>
-      </c>
-      <c r="K100" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="L100" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B101" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E101" s="1">
-        <v>44893</v>
+        <v>44917</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G101" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="H101" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I101" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="J101" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="K101" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="L101" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E102" s="1">
-        <v>44894</v>
+        <v>44918</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G102" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="H102" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="I102" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="J102" t="s">
-        <v>140</v>
-      </c>
-      <c r="K102" t="s">
-        <v>141</v>
-      </c>
-      <c r="L102" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>53</v>
+      </c>
+      <c r="B103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="1">
+        <v>44924</v>
+      </c>
+      <c r="F103" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" t="s">
+        <v>25</v>
+      </c>
+      <c r="H103" t="s">
+        <v>71</v>
+      </c>
+      <c r="I103" t="s">
+        <v>72</v>
+      </c>
+      <c r="J103" t="s">
+        <v>117</v>
+      </c>
+      <c r="K103" t="s">
         <v>73</v>
       </c>
-      <c r="B103" t="s">
-        <v>43</v>
-      </c>
-      <c r="C103" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s">
-        <v>26</v>
-      </c>
-      <c r="E103" s="1">
-        <v>44869</v>
-      </c>
-      <c r="F103" t="s">
-        <v>27</v>
-      </c>
-      <c r="G103" t="s">
-        <v>142</v>
-      </c>
-      <c r="H103" t="s">
-        <v>143</v>
-      </c>
-      <c r="I103" t="s">
-        <v>144</v>
-      </c>
-      <c r="J103" t="s">
-        <v>145</v>
-      </c>
-      <c r="K103" t="s">
-        <v>146</v>
-      </c>
       <c r="L103" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B104" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E104" s="1">
-        <v>44872</v>
+        <v>44925</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G104" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="H104" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="I104" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="J104" t="s">
-        <v>145</v>
-      </c>
-      <c r="K104" t="s">
-        <v>146</v>
-      </c>
-      <c r="L104" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="C105" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>26</v>
-      </c>
-      <c r="E105" s="1">
-        <v>44874</v>
-      </c>
-      <c r="F105" t="s">
-        <v>35</v>
-      </c>
-      <c r="G105" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="H105" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="I105" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="J105" t="s">
-        <v>145</v>
-      </c>
-      <c r="K105" t="s">
-        <v>146</v>
-      </c>
-      <c r="L105" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B106" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="C106" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>26</v>
-      </c>
-      <c r="E106" s="1">
-        <v>44876</v>
-      </c>
-      <c r="F106" t="s">
-        <v>27</v>
-      </c>
-      <c r="G106" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="H106" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="I106" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="J106" t="s">
-        <v>145</v>
-      </c>
-      <c r="K106" t="s">
-        <v>146</v>
-      </c>
-      <c r="L106" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B107" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>26</v>
-      </c>
-      <c r="E107" s="1">
-        <v>44879</v>
-      </c>
-      <c r="F107" t="s">
-        <v>34</v>
-      </c>
-      <c r="G107" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="H107" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I107" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="J107" t="s">
-        <v>145</v>
-      </c>
-      <c r="K107" t="s">
-        <v>146</v>
-      </c>
-      <c r="L107" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B108" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>26</v>
-      </c>
-      <c r="E108" s="1">
-        <v>44881</v>
-      </c>
-      <c r="F108" t="s">
-        <v>35</v>
-      </c>
-      <c r="G108" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="H108" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I108" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J108" t="s">
-        <v>145</v>
-      </c>
-      <c r="K108" t="s">
-        <v>146</v>
-      </c>
-      <c r="L108" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B109" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>26</v>
-      </c>
-      <c r="E109" s="1">
-        <v>44883</v>
-      </c>
-      <c r="F109" t="s">
-        <v>27</v>
-      </c>
-      <c r="G109" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="H109" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I109" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J109" t="s">
-        <v>145</v>
-      </c>
-      <c r="K109" t="s">
-        <v>146</v>
-      </c>
-      <c r="L109" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>26</v>
-      </c>
-      <c r="E110" s="1">
-        <v>44886</v>
-      </c>
-      <c r="F110" t="s">
-        <v>34</v>
-      </c>
-      <c r="G110" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="H110" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I110" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J110" t="s">
-        <v>145</v>
-      </c>
-      <c r="K110" t="s">
-        <v>146</v>
-      </c>
-      <c r="L110" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B111" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>26</v>
-      </c>
-      <c r="E111" s="1">
-        <v>44888</v>
-      </c>
-      <c r="F111" t="s">
-        <v>35</v>
-      </c>
-      <c r="G111" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="H111" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I111" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J111" t="s">
-        <v>145</v>
-      </c>
-      <c r="K111" t="s">
-        <v>146</v>
-      </c>
-      <c r="L111" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B112" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D112" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E112" s="1">
-        <v>44890</v>
+        <v>44897</v>
       </c>
       <c r="F112" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G112" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="H112" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="I112" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="J112" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="K112" t="s">
-        <v>146</v>
-      </c>
-      <c r="L112" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B113" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D113" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E113" s="1">
-        <v>44893</v>
+        <v>44900</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G113" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="H113" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="I113" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="J113" t="s">
-        <v>145</v>
-      </c>
-      <c r="K113" t="s">
-        <v>146</v>
-      </c>
-      <c r="L113" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B114" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D114" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E114" s="1">
-        <v>44895</v>
+        <v>44900</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G114" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="H114" t="s">
-        <v>143</v>
-      </c>
-      <c r="I114" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="J114" t="s">
-        <v>145</v>
-      </c>
-      <c r="K114" t="s">
-        <v>146</v>
-      </c>
-      <c r="L114" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B115" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D115" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E115" s="1">
-        <v>44893</v>
+        <v>44900</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G115" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="H115" t="s">
-        <v>148</v>
-      </c>
-      <c r="I115" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="J115" t="s">
-        <v>149</v>
-      </c>
-      <c r="L115" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D116" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E116" s="1">
-        <v>44894</v>
+        <v>44900</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G116" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="H116" t="s">
-        <v>150</v>
-      </c>
-      <c r="I116" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="J116" t="s">
-        <v>151</v>
-      </c>
-      <c r="L116" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B117" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D117" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E117" s="1">
-        <v>44895</v>
+        <v>44900</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G117" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="H117" t="s">
-        <v>152</v>
-      </c>
-      <c r="I117" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="J117" t="s">
-        <v>151</v>
-      </c>
-      <c r="L117" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B118" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C118" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D118" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E118" s="1">
-        <v>44873</v>
+        <v>44901</v>
       </c>
       <c r="F118" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H118" t="s">
+        <v>36</v>
+      </c>
+      <c r="I118" t="s">
+        <v>33</v>
+      </c>
+      <c r="J118" t="s">
         <v>50</v>
       </c>
-      <c r="I118" t="s">
-        <v>48</v>
-      </c>
-      <c r="J118" t="s">
-        <v>68</v>
-      </c>
       <c r="K118" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B119" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C119" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D119" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E119" s="1">
-        <v>44876</v>
+        <v>44903</v>
       </c>
       <c r="F119" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="I119" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="J119" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="K119" t="s">
-        <v>154</v>
+        <v>147</v>
+      </c>
+      <c r="L119" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C120" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D120" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E120" s="1">
-        <v>44880</v>
+        <v>44904</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G120" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H120" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="I120" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="J120" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="K120" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B121" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C121" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D121" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E121" s="1">
-        <v>44887</v>
+        <v>44908</v>
       </c>
       <c r="F121" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G121" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="H121" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="I121" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="J121" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="K121" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B122" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C122" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D122" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E122" s="1">
-        <v>44883</v>
+        <v>44896</v>
       </c>
       <c r="F122" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G122" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H122" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I122" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J122" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="K122" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B123" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C123" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D123" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E123" s="1">
-        <v>44868</v>
+        <v>44897</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G123" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H123" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="I123" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="J123" t="s">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="K123" t="s">
-        <v>157</v>
-      </c>
-      <c r="L123" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B124" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C124" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E124" s="1">
-        <v>44868</v>
+        <v>44902</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G124" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="H124" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="I124" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="J124" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K124" t="s">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="L124" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B125" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C125" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E125" s="1">
-        <v>44875</v>
+        <v>44902</v>
       </c>
       <c r="F125" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G125" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="H125" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="I125" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="J125" t="s">
-        <v>160</v>
-      </c>
-      <c r="K125" t="s">
-        <v>161</v>
-      </c>
-      <c r="L125" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B126" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C126" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E126" s="1">
-        <v>44882</v>
+        <v>44902</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G126" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="H126" t="s">
-        <v>159</v>
-      </c>
-      <c r="I126" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="J126" t="s">
-        <v>160</v>
-      </c>
-      <c r="K126" t="s">
-        <v>161</v>
-      </c>
-      <c r="L126" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B127" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C127" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E127" s="1">
-        <v>44889</v>
+        <v>44902</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G127" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="H127" t="s">
-        <v>159</v>
-      </c>
-      <c r="I127" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="J127" t="s">
-        <v>160</v>
-      </c>
-      <c r="K127" t="s">
-        <v>161</v>
-      </c>
-      <c r="L127" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B128" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C128" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D128" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E128" s="1">
-        <v>44872</v>
+        <v>44902</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G128" t="s">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="H128" t="s">
-        <v>101</v>
-      </c>
-      <c r="I128" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="J128" t="s">
-        <v>44</v>
-      </c>
-      <c r="K128" t="s">
-        <v>162</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B129" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C129" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D129" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E129" s="1">
-        <v>44872</v>
+        <v>44902</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="H129" t="s">
-        <v>103</v>
-      </c>
-      <c r="I129" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="J129" t="s">
-        <v>44</v>
-      </c>
-      <c r="K129" t="s">
-        <v>162</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B130" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C130" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D130" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E130" s="1">
-        <v>44872</v>
+        <v>44902</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G130" t="s">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="H130" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="I130" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
-      </c>
-      <c r="K130" t="s">
-        <v>162</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C131" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D131" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E131" s="1">
-        <v>44872</v>
+        <v>44903</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G131" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H131" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="I131" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="J131" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="K131" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C132" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D132" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E132" s="1">
-        <v>44872</v>
+        <v>44903</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G132" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="H132" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="I132" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="J132" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K132" t="s">
-        <v>162</v>
+        <v>142</v>
+      </c>
+      <c r="L132" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B133" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C133" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D133" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E133" s="1">
-        <v>44874</v>
+        <v>44904</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G133" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="H133" t="s">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="I133" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="J133" t="s">
-        <v>166</v>
+        <v>51</v>
       </c>
       <c r="K133" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="L133" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B134" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C134" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D134" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E134" s="1">
-        <v>44875</v>
+        <v>44905</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G134" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="H134" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="I134" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="J134" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="K134" t="s">
         <v>153</v>
       </c>
+      <c r="L134" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B135" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C135" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D135" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E135" s="1">
-        <v>44876</v>
+        <v>44906</v>
       </c>
       <c r="F135" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G135" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H135" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="I135" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="J135" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="K135" t="s">
-        <v>154</v>
+        <v>156</v>
+      </c>
+      <c r="L135" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B136" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C136" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D136" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E136" s="1">
-        <v>44877</v>
+        <v>44909</v>
       </c>
       <c r="F136" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G136" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="H136" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="I136" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="J136" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="K136" t="s">
-        <v>171</v>
-      </c>
-      <c r="L136" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B137" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C137" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D137" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E137" s="1">
-        <v>44877</v>
+        <v>44910</v>
       </c>
       <c r="F137" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G137" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H137" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="I137" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="J137" t="s">
-        <v>44</v>
+        <v>148</v>
+      </c>
+      <c r="K137" t="s">
+        <v>158</v>
       </c>
       <c r="L137" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B138" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C138" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D138" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E138" s="1">
-        <v>44881</v>
+        <v>44915</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G138" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H138" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="I138" t="s">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="J138" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="K138" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="L138" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B139" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C139" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D139" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E139" s="1">
-        <v>44881</v>
+        <v>44923</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G139" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H139" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="I139" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="J139" t="s">
-        <v>44</v>
+        <v>148</v>
+      </c>
+      <c r="K139" t="s">
+        <v>82</v>
       </c>
       <c r="L139" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B140" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C140" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D140" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E140" s="1">
-        <v>44882</v>
+        <v>44923</v>
       </c>
       <c r="F140" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G140" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="H140" t="s">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="I140" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="J140" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="K140" t="s">
-        <v>153</v>
+        <v>163</v>
+      </c>
+      <c r="L140" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B141" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C141" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D141" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E141" s="1">
-        <v>44882</v>
+        <v>44901</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G141" t="s">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="H141" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="I141" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="J141" t="s">
-        <v>156</v>
-      </c>
-      <c r="K141" t="s">
-        <v>176</v>
-      </c>
-      <c r="L141" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B142" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C142" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E142" s="1">
-        <v>44883</v>
+        <v>44901</v>
       </c>
       <c r="F142" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G142" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="H142" t="s">
-        <v>177</v>
-      </c>
-      <c r="I142" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="J142" t="s">
-        <v>170</v>
-      </c>
-      <c r="K142" t="s">
-        <v>179</v>
-      </c>
-      <c r="L142" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B143" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C143" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E143" s="1">
-        <v>44890</v>
+        <v>44901</v>
       </c>
       <c r="F143" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G143" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="H143" t="s">
-        <v>177</v>
-      </c>
-      <c r="I143" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="J143" t="s">
-        <v>170</v>
-      </c>
-      <c r="K143" t="s">
-        <v>179</v>
-      </c>
-      <c r="L143" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B144" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="C144" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D144" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E144" s="1">
-        <v>44883</v>
+        <v>44901</v>
       </c>
       <c r="F144" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G144" t="s">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="H144" t="s">
-        <v>53</v>
-      </c>
-      <c r="I144" t="s">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="J144" t="s">
-        <v>70</v>
-      </c>
-      <c r="K144" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B145" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C145" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D145" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E145" s="1">
-        <v>44885</v>
+        <v>44901</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G145" t="s">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="H145" t="s">
-        <v>180</v>
-      </c>
-      <c r="I145" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="J145" t="s">
-        <v>44</v>
-      </c>
-      <c r="K145" t="s">
-        <v>182</v>
-      </c>
-      <c r="L145" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B146" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C146" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D146" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E146" s="1">
-        <v>44888</v>
+        <v>44902</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G146" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="H146" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="I146" t="s">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="J146" t="s">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="K146" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L146" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B147" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C147" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D147" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E147" s="1">
-        <v>44890</v>
+        <v>44905</v>
       </c>
       <c r="F147" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G147" t="s">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="H147" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I147" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="J147" t="s">
-        <v>44</v>
+        <v>65</v>
+      </c>
+      <c r="K147" t="s">
+        <v>164</v>
       </c>
       <c r="L147" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B148" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C148" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D148" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E148" s="1">
-        <v>44892</v>
+        <v>44906</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G148" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="H148" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="I148" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="J148" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="K148" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="L148" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B149" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C149" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D149" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E149" s="1">
-        <v>44874</v>
+        <v>44908</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G149" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H149" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="I149" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J149" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="K149" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="L149" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B150" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C150" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D150" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E150" s="1">
-        <v>44877</v>
+        <v>44925</v>
       </c>
       <c r="F150" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G150" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H150" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="I150" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J150" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="K150" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="L150" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>73</v>
-      </c>
-      <c r="B151" t="s">
-        <v>43</v>
-      </c>
-      <c r="C151" t="s">
-        <v>41</v>
-      </c>
-      <c r="D151" t="s">
-        <v>26</v>
-      </c>
-      <c r="E151" s="1">
-        <v>44883</v>
-      </c>
-      <c r="F151" t="s">
-        <v>27</v>
-      </c>
-      <c r="G151" t="s">
-        <v>42</v>
-      </c>
-      <c r="H151" t="s">
-        <v>191</v>
-      </c>
-      <c r="I151" t="s">
-        <v>45</v>
-      </c>
-      <c r="J151" t="s">
-        <v>87</v>
-      </c>
-      <c r="K151" t="s">
-        <v>189</v>
-      </c>
-      <c r="L151" t="s">
-        <v>29</v>
-      </c>
+      <c r="E151" s="1"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>73</v>
-      </c>
-      <c r="B152" t="s">
-        <v>43</v>
-      </c>
-      <c r="C152" t="s">
-        <v>41</v>
-      </c>
-      <c r="D152" t="s">
-        <v>26</v>
-      </c>
-      <c r="E152" s="1">
-        <v>44885</v>
-      </c>
-      <c r="F152" t="s">
-        <v>31</v>
-      </c>
-      <c r="G152" t="s">
-        <v>69</v>
-      </c>
-      <c r="H152" t="s">
-        <v>101</v>
-      </c>
-      <c r="I152" t="s">
-        <v>7</v>
-      </c>
-      <c r="J152" t="s">
-        <v>192</v>
-      </c>
-      <c r="K152" t="s">
-        <v>162</v>
-      </c>
+      <c r="E152" s="1"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>73</v>
-      </c>
-      <c r="B153" t="s">
-        <v>43</v>
-      </c>
-      <c r="C153" t="s">
-        <v>41</v>
-      </c>
-      <c r="D153" t="s">
-        <v>26</v>
-      </c>
-      <c r="E153" s="1">
-        <v>44885</v>
-      </c>
-      <c r="F153" t="s">
-        <v>31</v>
-      </c>
-      <c r="G153" t="s">
-        <v>46</v>
-      </c>
-      <c r="H153" t="s">
-        <v>105</v>
-      </c>
-      <c r="J153" t="s">
-        <v>192</v>
-      </c>
-      <c r="K153" t="s">
-        <v>162</v>
-      </c>
+      <c r="E153" s="1"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>73</v>
-      </c>
-      <c r="B154" t="s">
-        <v>43</v>
-      </c>
-      <c r="C154" t="s">
-        <v>41</v>
-      </c>
-      <c r="D154" t="s">
-        <v>26</v>
-      </c>
-      <c r="E154" s="1">
-        <v>44885</v>
-      </c>
-      <c r="F154" t="s">
-        <v>31</v>
-      </c>
-      <c r="G154" t="s">
-        <v>46</v>
-      </c>
-      <c r="H154" t="s">
-        <v>106</v>
-      </c>
-      <c r="J154" t="s">
-        <v>192</v>
-      </c>
-      <c r="K154" t="s">
-        <v>162</v>
-      </c>
+      <c r="E154" s="1"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>73</v>
-      </c>
-      <c r="B155" t="s">
-        <v>43</v>
-      </c>
-      <c r="C155" t="s">
-        <v>41</v>
-      </c>
-      <c r="D155" t="s">
-        <v>26</v>
-      </c>
-      <c r="E155" s="1">
-        <v>44885</v>
-      </c>
-      <c r="F155" t="s">
-        <v>31</v>
-      </c>
-      <c r="G155" t="s">
-        <v>46</v>
-      </c>
-      <c r="H155" t="s">
-        <v>108</v>
-      </c>
-      <c r="J155" t="s">
-        <v>192</v>
-      </c>
-      <c r="K155" t="s">
-        <v>162</v>
-      </c>
+      <c r="E155" s="1"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>73</v>
-      </c>
-      <c r="B156" t="s">
-        <v>43</v>
-      </c>
-      <c r="C156" t="s">
-        <v>41</v>
-      </c>
-      <c r="D156" t="s">
-        <v>26</v>
-      </c>
-      <c r="E156" s="1">
-        <v>44885</v>
-      </c>
-      <c r="F156" t="s">
-        <v>31</v>
-      </c>
-      <c r="G156" t="s">
-        <v>38</v>
-      </c>
-      <c r="H156" t="s">
-        <v>103</v>
-      </c>
-      <c r="I156" t="s">
-        <v>104</v>
-      </c>
-      <c r="J156" t="s">
-        <v>192</v>
-      </c>
-      <c r="K156" t="s">
-        <v>162</v>
-      </c>
+      <c r="E156" s="1"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>73</v>
-      </c>
-      <c r="B157" t="s">
-        <v>43</v>
-      </c>
-      <c r="C157" t="s">
-        <v>41</v>
-      </c>
-      <c r="D157" t="s">
-        <v>26</v>
-      </c>
-      <c r="E157" s="1">
-        <v>44887</v>
-      </c>
-      <c r="F157" t="s">
-        <v>17</v>
-      </c>
-      <c r="G157" t="s">
-        <v>42</v>
-      </c>
-      <c r="H157" t="s">
-        <v>193</v>
-      </c>
-      <c r="I157" t="s">
-        <v>45</v>
-      </c>
-      <c r="J157" t="s">
-        <v>87</v>
-      </c>
-      <c r="K157" t="s">
-        <v>189</v>
-      </c>
-      <c r="L157" t="s">
-        <v>29</v>
-      </c>
+      <c r="E157" s="1"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>73</v>
-      </c>
-      <c r="B158" t="s">
-        <v>43</v>
-      </c>
-      <c r="C158" t="s">
-        <v>41</v>
-      </c>
-      <c r="D158" t="s">
-        <v>26</v>
-      </c>
-      <c r="E158" s="1">
-        <v>44892</v>
-      </c>
-      <c r="F158" t="s">
-        <v>31</v>
-      </c>
-      <c r="G158" t="s">
-        <v>39</v>
-      </c>
-      <c r="H158" t="s">
-        <v>194</v>
-      </c>
-      <c r="I158" t="s">
-        <v>195</v>
-      </c>
-      <c r="J158" t="s">
-        <v>196</v>
-      </c>
-      <c r="K158" t="s">
-        <v>197</v>
-      </c>
-      <c r="L158" t="s">
-        <v>29</v>
-      </c>
+      <c r="E158" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
